--- a/biology/Botanique/David_Lyall/David_Lyall.xlsx
+++ b/biology/Botanique/David_Lyall/David_Lyall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Lyall (Auchenblae (Kincardineshire), 1er juin 1817-Cheltenham, 2 mars 1895) est un naturaliste, médecin et explorateur britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à Aberdeen, obtient son diplôme de chirurgie au Royal College of Surgeons of Edinburgh (en), entre dans la Royal Navy et s'engage comme médecin sur un baleinier à destination du Groenland. En 1839, James Clark Ross le choisit comme chirurgien en second et botaniste du Terror de Francis Crozier, pour son expédition en Antarctique.
 Il constitue pendant le voyage une collection de plus de 1 500 spécimens, dont de nombreuses variétés d'algues et une flore des îles Kerguelen.
